--- a/StockInfo/tse_analysis_result_20251203.xlsx
+++ b/StockInfo/tse_analysis_result_20251203.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="20251203" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251203" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result_20251203.xlsx
+++ b/StockInfo/tse_analysis_result_20251203.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251203" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251203" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result_20251203.xlsx
+++ b/StockInfo/tse_analysis_result_20251203.xlsx
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -210,6 +210,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -629,15 +632,15 @@
           <t>【2025-12-03 買超 TOP 100】</t>
         </is>
       </c>
-      <c r="B1" s="16" t="n"/>
-      <c r="C1" s="16" t="n"/>
-      <c r="D1" s="16" t="n"/>
-      <c r="E1" s="16" t="n"/>
-      <c r="F1" s="16" t="n"/>
-      <c r="G1" s="16" t="n"/>
-      <c r="H1" s="16" t="n"/>
-      <c r="I1" s="16" t="n"/>
-      <c r="J1" s="17" t="n"/>
+      <c r="B1" s="17" t="n"/>
+      <c r="C1" s="17" t="n"/>
+      <c r="D1" s="17" t="n"/>
+      <c r="E1" s="17" t="n"/>
+      <c r="F1" s="17" t="n"/>
+      <c r="G1" s="17" t="n"/>
+      <c r="H1" s="17" t="n"/>
+      <c r="I1" s="17" t="n"/>
+      <c r="J1" s="18" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -652,52 +655,52 @@
       <c r="J2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>證券領域</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
+      <c r="H3" s="10" t="inlineStr">
         <is>
           <t>新進榜</t>
         </is>
       </c>
-      <c r="I3" s="10" t="inlineStr">
+      <c r="I3" s="11" t="inlineStr">
         <is>
           <t>值得觀察</t>
         </is>
       </c>
-      <c r="J3" s="11" t="inlineStr">
+      <c r="J3" s="12" t="inlineStr">
         <is>
           <t>統計數據(60天)</t>
         </is>
@@ -772,7 +775,7 @@
         <v>24729</v>
       </c>
       <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="12" t="inlineStr">
+      <c r="I5" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -812,7 +815,7 @@
         <v>18193</v>
       </c>
       <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="12" t="inlineStr">
+      <c r="I6" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -884,7 +887,7 @@
         <v>11621</v>
       </c>
       <c r="H8" s="4" t="inlineStr"/>
-      <c r="I8" s="12" t="inlineStr">
+      <c r="I8" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -959,7 +962,7 @@
       <c r="G10" s="4" t="n">
         <v>11161</v>
       </c>
-      <c r="H10" s="13" t="inlineStr">
+      <c r="H10" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
@@ -999,7 +1002,7 @@
       <c r="G11" s="4" t="n">
         <v>10917</v>
       </c>
-      <c r="H11" s="13" t="inlineStr">
+      <c r="H11" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
@@ -1040,7 +1043,7 @@
         <v>10826</v>
       </c>
       <c r="H12" s="4" t="inlineStr"/>
-      <c r="I12" s="12" t="inlineStr">
+      <c r="I12" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1116,7 +1119,7 @@
         <v>10105</v>
       </c>
       <c r="H14" s="4" t="inlineStr"/>
-      <c r="I14" s="12" t="inlineStr">
+      <c r="I14" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1155,7 +1158,7 @@
       <c r="G15" s="4" t="n">
         <v>9912</v>
       </c>
-      <c r="H15" s="13" t="inlineStr">
+      <c r="H15" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
@@ -1232,7 +1235,7 @@
         <v>8392</v>
       </c>
       <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="12" t="inlineStr">
+      <c r="I17" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1272,7 +1275,7 @@
         <v>8222</v>
       </c>
       <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="12" t="inlineStr">
+      <c r="I18" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1312,7 +1315,7 @@
         <v>7954</v>
       </c>
       <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="12" t="inlineStr">
+      <c r="I19" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1424,7 +1427,7 @@
         <v>6954</v>
       </c>
       <c r="H22" s="4" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
+      <c r="I22" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1464,7 +1467,7 @@
         <v>6502</v>
       </c>
       <c r="H23" s="4" t="inlineStr"/>
-      <c r="I23" s="12" t="inlineStr">
+      <c r="I23" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1576,7 +1579,7 @@
         <v>5893</v>
       </c>
       <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="12" t="inlineStr">
+      <c r="I26" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1724,7 +1727,7 @@
         <v>4349</v>
       </c>
       <c r="H30" s="4" t="inlineStr"/>
-      <c r="I30" s="12" t="inlineStr">
+      <c r="I30" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1764,7 +1767,7 @@
         <v>4116</v>
       </c>
       <c r="H31" s="4" t="inlineStr"/>
-      <c r="I31" s="12" t="inlineStr">
+      <c r="I31" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1804,7 +1807,7 @@
         <v>3854</v>
       </c>
       <c r="H32" s="4" t="inlineStr"/>
-      <c r="I32" s="12" t="inlineStr">
+      <c r="I32" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1844,7 +1847,7 @@
         <v>3606</v>
       </c>
       <c r="H33" s="4" t="inlineStr"/>
-      <c r="I33" s="12" t="inlineStr">
+      <c r="I33" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.9σ)</t>
         </is>
@@ -1920,7 +1923,7 @@
         <v>3284</v>
       </c>
       <c r="H35" s="4" t="inlineStr"/>
-      <c r="I35" s="12" t="inlineStr">
+      <c r="I35" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1960,7 +1963,7 @@
         <v>3211</v>
       </c>
       <c r="H36" s="4" t="inlineStr"/>
-      <c r="I36" s="12" t="inlineStr">
+      <c r="I36" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.9σ)+連續買超</t>
         </is>
@@ -2040,7 +2043,7 @@
         <v>3087</v>
       </c>
       <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="12" t="inlineStr">
+      <c r="I38" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2080,7 +2083,7 @@
         <v>2918</v>
       </c>
       <c r="H39" s="4" t="inlineStr"/>
-      <c r="I39" s="12" t="inlineStr">
+      <c r="I39" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2120,7 +2123,7 @@
         <v>2771</v>
       </c>
       <c r="H40" s="4" t="inlineStr"/>
-      <c r="I40" s="12" t="inlineStr">
+      <c r="I40" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2156,7 +2159,7 @@
         <v>2539</v>
       </c>
       <c r="H41" s="4" t="inlineStr"/>
-      <c r="I41" s="12" t="inlineStr">
+      <c r="I41" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.8σ)+連續買超</t>
         </is>
@@ -2232,7 +2235,7 @@
         <v>2399</v>
       </c>
       <c r="H43" s="4" t="inlineStr"/>
-      <c r="I43" s="12" t="inlineStr">
+      <c r="I43" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2272,7 +2275,7 @@
         <v>2220</v>
       </c>
       <c r="H44" s="4" t="inlineStr"/>
-      <c r="I44" s="12" t="inlineStr">
+      <c r="I44" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2384,7 +2387,7 @@
         <v>1839</v>
       </c>
       <c r="H47" s="4" t="inlineStr"/>
-      <c r="I47" s="12" t="inlineStr">
+      <c r="I47" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2424,7 +2427,7 @@
         <v>1794</v>
       </c>
       <c r="H48" s="4" t="inlineStr"/>
-      <c r="I48" s="12" t="inlineStr">
+      <c r="I48" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2464,7 +2467,7 @@
         <v>1667</v>
       </c>
       <c r="H49" s="4" t="inlineStr"/>
-      <c r="I49" s="12" t="inlineStr">
+      <c r="I49" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.7σ)</t>
         </is>
@@ -2652,7 +2655,7 @@
         <v>1480</v>
       </c>
       <c r="H54" s="4" t="inlineStr"/>
-      <c r="I54" s="12" t="inlineStr">
+      <c r="I54" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2728,7 +2731,7 @@
         <v>1452</v>
       </c>
       <c r="H56" s="4" t="inlineStr"/>
-      <c r="I56" s="12" t="inlineStr">
+      <c r="I56" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2768,7 +2771,7 @@
         <v>1399</v>
       </c>
       <c r="H57" s="4" t="inlineStr"/>
-      <c r="I57" s="12" t="inlineStr">
+      <c r="I57" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2808,7 +2811,7 @@
         <v>1326</v>
       </c>
       <c r="H58" s="4" t="inlineStr"/>
-      <c r="I58" s="12" t="inlineStr">
+      <c r="I58" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2884,7 +2887,7 @@
         <v>1292</v>
       </c>
       <c r="H60" s="4" t="inlineStr"/>
-      <c r="I60" s="12" t="inlineStr">
+      <c r="I60" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.6σ)</t>
         </is>
@@ -2964,7 +2967,7 @@
         <v>1214</v>
       </c>
       <c r="H62" s="4" t="inlineStr"/>
-      <c r="I62" s="12" t="inlineStr">
+      <c r="I62" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3004,7 +3007,7 @@
         <v>1188</v>
       </c>
       <c r="H63" s="4" t="inlineStr"/>
-      <c r="I63" s="12" t="inlineStr">
+      <c r="I63" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3116,7 +3119,7 @@
         <v>1116</v>
       </c>
       <c r="H66" s="4" t="inlineStr"/>
-      <c r="I66" s="12" t="inlineStr">
+      <c r="I66" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3156,7 +3159,7 @@
         <v>1067</v>
       </c>
       <c r="H67" s="4" t="inlineStr"/>
-      <c r="I67" s="12" t="inlineStr">
+      <c r="I67" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3196,7 +3199,7 @@
         <v>1066</v>
       </c>
       <c r="H68" s="4" t="inlineStr"/>
-      <c r="I68" s="12" t="inlineStr">
+      <c r="I68" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3236,7 +3239,7 @@
         <v>1021</v>
       </c>
       <c r="H69" s="4" t="inlineStr"/>
-      <c r="I69" s="12" t="inlineStr">
+      <c r="I69" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3276,7 +3279,7 @@
         <v>996</v>
       </c>
       <c r="H70" s="4" t="inlineStr"/>
-      <c r="I70" s="12" t="inlineStr">
+      <c r="I70" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.5σ)+連續買超</t>
         </is>
@@ -3356,7 +3359,7 @@
         <v>909</v>
       </c>
       <c r="H72" s="4" t="inlineStr"/>
-      <c r="I72" s="12" t="inlineStr">
+      <c r="I72" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3432,7 +3435,7 @@
         <v>895</v>
       </c>
       <c r="H74" s="4" t="inlineStr"/>
-      <c r="I74" s="12" t="inlineStr">
+      <c r="I74" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3508,7 +3511,7 @@
         <v>867</v>
       </c>
       <c r="H76" s="4" t="inlineStr"/>
-      <c r="I76" s="12" t="inlineStr">
+      <c r="I76" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3620,7 +3623,7 @@
         <v>826</v>
       </c>
       <c r="H79" s="4" t="inlineStr"/>
-      <c r="I79" s="12" t="inlineStr">
+      <c r="I79" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3660,7 +3663,7 @@
         <v>801</v>
       </c>
       <c r="H80" s="4" t="inlineStr"/>
-      <c r="I80" s="12" t="inlineStr">
+      <c r="I80" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.6σ)+連續買超</t>
         </is>
@@ -3740,7 +3743,7 @@
         <v>774</v>
       </c>
       <c r="H82" s="4" t="inlineStr"/>
-      <c r="I82" s="12" t="inlineStr">
+      <c r="I82" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3888,7 +3891,7 @@
         <v>717</v>
       </c>
       <c r="H86" s="4" t="inlineStr"/>
-      <c r="I86" s="12" t="inlineStr">
+      <c r="I86" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3928,7 +3931,7 @@
         <v>705</v>
       </c>
       <c r="H87" s="4" t="inlineStr"/>
-      <c r="I87" s="12" t="inlineStr">
+      <c r="I87" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4144,7 +4147,7 @@
         <v>647</v>
       </c>
       <c r="H93" s="4" t="inlineStr"/>
-      <c r="I93" s="12" t="inlineStr">
+      <c r="I93" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4184,7 +4187,7 @@
         <v>630</v>
       </c>
       <c r="H94" s="4" t="inlineStr"/>
-      <c r="I94" s="12" t="inlineStr">
+      <c r="I94" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4224,7 +4227,7 @@
         <v>614</v>
       </c>
       <c r="H95" s="4" t="inlineStr"/>
-      <c r="I95" s="12" t="inlineStr">
+      <c r="I95" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4264,7 +4267,7 @@
         <v>608</v>
       </c>
       <c r="H96" s="4" t="inlineStr"/>
-      <c r="I96" s="12" t="inlineStr">
+      <c r="I96" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4304,7 +4307,7 @@
         <v>589</v>
       </c>
       <c r="H97" s="4" t="inlineStr"/>
-      <c r="I97" s="12" t="inlineStr">
+      <c r="I97" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4344,7 +4347,7 @@
         <v>566</v>
       </c>
       <c r="H98" s="4" t="inlineStr"/>
-      <c r="I98" s="12" t="inlineStr">
+      <c r="I98" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4384,7 +4387,7 @@
         <v>544</v>
       </c>
       <c r="H99" s="4" t="inlineStr"/>
-      <c r="I99" s="12" t="inlineStr">
+      <c r="I99" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4532,7 +4535,7 @@
         <v>515</v>
       </c>
       <c r="H103" s="4" t="inlineStr"/>
-      <c r="I103" s="12" t="inlineStr">
+      <c r="I103" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4569,15 +4572,15 @@
           <t>【2025-12-03 賣超 TOP 50】</t>
         </is>
       </c>
-      <c r="B106" s="16" t="n"/>
-      <c r="C106" s="16" t="n"/>
-      <c r="D106" s="16" t="n"/>
-      <c r="E106" s="16" t="n"/>
-      <c r="F106" s="16" t="n"/>
-      <c r="G106" s="16" t="n"/>
-      <c r="H106" s="16" t="n"/>
-      <c r="I106" s="16" t="n"/>
-      <c r="J106" s="17" t="n"/>
+      <c r="B106" s="17" t="n"/>
+      <c r="C106" s="17" t="n"/>
+      <c r="D106" s="17" t="n"/>
+      <c r="E106" s="17" t="n"/>
+      <c r="F106" s="17" t="n"/>
+      <c r="G106" s="17" t="n"/>
+      <c r="H106" s="17" t="n"/>
+      <c r="I106" s="17" t="n"/>
+      <c r="J106" s="18" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="4" t="n"/>
@@ -4627,17 +4630,17 @@
           <t>買賣超張數</t>
         </is>
       </c>
-      <c r="H108" s="9" t="inlineStr">
+      <c r="H108" s="10" t="inlineStr">
         <is>
           <t>新進榜</t>
         </is>
       </c>
-      <c r="I108" s="10" t="inlineStr">
+      <c r="I108" s="11" t="inlineStr">
         <is>
           <t>值得觀察</t>
         </is>
       </c>
-      <c r="J108" s="11" t="inlineStr">
+      <c r="J108" s="12" t="inlineStr">
         <is>
           <t>統計數據(60天)</t>
         </is>
@@ -4676,7 +4679,7 @@
         <v>-41010</v>
       </c>
       <c r="H109" s="4" t="inlineStr"/>
-      <c r="I109" s="12" t="inlineStr">
+      <c r="I109" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.2σ)</t>
         </is>
@@ -4720,7 +4723,7 @@
         <v>-18954</v>
       </c>
       <c r="H110" s="4" t="inlineStr"/>
-      <c r="I110" s="12" t="inlineStr">
+      <c r="I110" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -4795,7 +4798,7 @@
       <c r="G112" s="4" t="n">
         <v>-15766</v>
       </c>
-      <c r="H112" s="14" t="inlineStr">
+      <c r="H112" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -4872,7 +4875,7 @@
         <v>-11498</v>
       </c>
       <c r="H114" s="4" t="inlineStr"/>
-      <c r="I114" s="12" t="inlineStr">
+      <c r="I114" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -4912,7 +4915,7 @@
         <v>-10982</v>
       </c>
       <c r="H115" s="4" t="inlineStr"/>
-      <c r="I115" s="12" t="inlineStr">
+      <c r="I115" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -4952,7 +4955,7 @@
         <v>-10432</v>
       </c>
       <c r="H116" s="4" t="inlineStr"/>
-      <c r="I116" s="12" t="inlineStr">
+      <c r="I116" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -4992,7 +4995,7 @@
         <v>-9734</v>
       </c>
       <c r="H117" s="4" t="inlineStr"/>
-      <c r="I117" s="12" t="inlineStr">
+      <c r="I117" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5067,7 +5070,7 @@
       <c r="G119" s="4" t="n">
         <v>-9107</v>
       </c>
-      <c r="H119" s="14" t="inlineStr">
+      <c r="H119" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -5103,12 +5106,12 @@
       <c r="G120" s="4" t="n">
         <v>-8161</v>
       </c>
-      <c r="H120" s="14" t="inlineStr">
+      <c r="H120" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
       </c>
-      <c r="I120" s="12" t="inlineStr">
+      <c r="I120" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5148,7 +5151,7 @@
         <v>-7525</v>
       </c>
       <c r="H121" s="4" t="inlineStr"/>
-      <c r="I121" s="12" t="inlineStr">
+      <c r="I121" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5184,7 +5187,7 @@
         <v>-7038</v>
       </c>
       <c r="H122" s="4" t="inlineStr"/>
-      <c r="I122" s="12" t="inlineStr">
+      <c r="I122" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5224,7 +5227,7 @@
         <v>-6185</v>
       </c>
       <c r="H123" s="4" t="inlineStr"/>
-      <c r="I123" s="12" t="inlineStr">
+      <c r="I123" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5263,12 +5266,12 @@
       <c r="G124" s="4" t="n">
         <v>-5510</v>
       </c>
-      <c r="H124" s="14" t="inlineStr">
+      <c r="H124" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
       </c>
-      <c r="I124" s="12" t="inlineStr">
+      <c r="I124" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(4.6σ)</t>
         </is>
@@ -5311,7 +5314,7 @@
       <c r="G125" s="4" t="n">
         <v>-5149</v>
       </c>
-      <c r="H125" s="14" t="inlineStr">
+      <c r="H125" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -5352,7 +5355,7 @@
         <v>-4924</v>
       </c>
       <c r="H126" s="4" t="inlineStr"/>
-      <c r="I126" s="12" t="inlineStr">
+      <c r="I126" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(4.8σ)</t>
         </is>
@@ -5396,7 +5399,7 @@
         <v>-4749</v>
       </c>
       <c r="H127" s="4" t="inlineStr"/>
-      <c r="I127" s="12" t="inlineStr">
+      <c r="I127" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5435,7 +5438,7 @@
       <c r="G128" s="4" t="n">
         <v>-4736</v>
       </c>
-      <c r="H128" s="14" t="inlineStr">
+      <c r="H128" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -5548,7 +5551,7 @@
         <v>-3499</v>
       </c>
       <c r="H131" s="4" t="inlineStr"/>
-      <c r="I131" s="12" t="inlineStr">
+      <c r="I131" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5588,7 +5591,7 @@
         <v>-3272</v>
       </c>
       <c r="H132" s="4" t="inlineStr"/>
-      <c r="I132" s="12" t="inlineStr">
+      <c r="I132" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5628,7 +5631,7 @@
         <v>-3172</v>
       </c>
       <c r="H133" s="4" t="inlineStr"/>
-      <c r="I133" s="12" t="inlineStr">
+      <c r="I133" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5704,7 +5707,7 @@
         <v>-2542</v>
       </c>
       <c r="H135" s="4" t="inlineStr"/>
-      <c r="I135" s="12" t="inlineStr">
+      <c r="I135" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5744,7 +5747,7 @@
         <v>-2468</v>
       </c>
       <c r="H136" s="4" t="inlineStr"/>
-      <c r="I136" s="12" t="inlineStr">
+      <c r="I136" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5784,7 +5787,7 @@
         <v>-2413</v>
       </c>
       <c r="H137" s="4" t="inlineStr"/>
-      <c r="I137" s="12" t="inlineStr">
+      <c r="I137" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5960,7 +5963,7 @@
         <v>-2054</v>
       </c>
       <c r="H142" s="4" t="inlineStr"/>
-      <c r="I142" s="12" t="inlineStr">
+      <c r="I142" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -6000,7 +6003,7 @@
         <v>-2047</v>
       </c>
       <c r="H143" s="4" t="inlineStr"/>
-      <c r="I143" s="12" t="inlineStr">
+      <c r="I143" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -6040,7 +6043,7 @@
         <v>-2015</v>
       </c>
       <c r="H144" s="4" t="inlineStr"/>
-      <c r="I144" s="12" t="inlineStr">
+      <c r="I144" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(8.6σ)</t>
         </is>
@@ -6120,7 +6123,7 @@
         <v>-1891</v>
       </c>
       <c r="H146" s="4" t="inlineStr"/>
-      <c r="I146" s="12" t="inlineStr">
+      <c r="I146" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -6160,7 +6163,7 @@
         <v>-1857</v>
       </c>
       <c r="H147" s="4" t="inlineStr"/>
-      <c r="I147" s="12" t="inlineStr">
+      <c r="I147" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.6σ)</t>
         </is>
@@ -6204,7 +6207,7 @@
         <v>-1845</v>
       </c>
       <c r="H148" s="4" t="inlineStr"/>
-      <c r="I148" s="12" t="inlineStr">
+      <c r="I148" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -6316,7 +6319,7 @@
         <v>-1612</v>
       </c>
       <c r="H151" s="4" t="inlineStr"/>
-      <c r="I151" s="12" t="inlineStr">
+      <c r="I151" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -6356,7 +6359,7 @@
         <v>-1608</v>
       </c>
       <c r="H152" s="4" t="inlineStr"/>
-      <c r="I152" s="12" t="inlineStr">
+      <c r="I152" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.2σ)</t>
         </is>
@@ -6432,7 +6435,7 @@
         <v>-1473</v>
       </c>
       <c r="H154" s="4" t="inlineStr"/>
-      <c r="I154" s="12" t="inlineStr">
+      <c r="I154" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -6472,7 +6475,7 @@
         <v>-1466</v>
       </c>
       <c r="H155" s="4" t="inlineStr"/>
-      <c r="I155" s="12" t="inlineStr">
+      <c r="I155" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -6584,7 +6587,7 @@
         <v>-1184</v>
       </c>
       <c r="H158" s="4" t="inlineStr"/>
-      <c r="I158" s="12" t="inlineStr">
+      <c r="I158" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -6616,20 +6619,20 @@
       <c r="J160" s="4" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="15" t="inlineStr">
+      <c r="A161" s="16" t="inlineStr">
         <is>
           <t>【2025-12-03 ETF買超 TOP 10】</t>
         </is>
       </c>
-      <c r="B161" s="16" t="n"/>
-      <c r="C161" s="16" t="n"/>
-      <c r="D161" s="16" t="n"/>
-      <c r="E161" s="16" t="n"/>
-      <c r="F161" s="16" t="n"/>
-      <c r="G161" s="16" t="n"/>
-      <c r="H161" s="16" t="n"/>
-      <c r="I161" s="16" t="n"/>
-      <c r="J161" s="17" t="n"/>
+      <c r="B161" s="17" t="n"/>
+      <c r="C161" s="17" t="n"/>
+      <c r="D161" s="17" t="n"/>
+      <c r="E161" s="17" t="n"/>
+      <c r="F161" s="17" t="n"/>
+      <c r="G161" s="17" t="n"/>
+      <c r="H161" s="17" t="n"/>
+      <c r="I161" s="17" t="n"/>
+      <c r="J161" s="18" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="4" t="n"/>
@@ -6644,32 +6647,32 @@
       <c r="J162" s="4" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="11" t="inlineStr">
+      <c r="A163" s="12" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B163" s="11" t="inlineStr">
+      <c r="B163" s="12" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C163" s="11" t="inlineStr">
+      <c r="C163" s="12" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="D163" s="11" t="inlineStr">
+      <c r="D163" s="12" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="E163" s="11" t="inlineStr">
+      <c r="E163" s="12" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="F163" s="11" t="inlineStr">
+      <c r="F163" s="12" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -7020,20 +7023,20 @@
       <c r="J175" s="4" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="15" t="inlineStr">
+      <c r="A176" s="16" t="inlineStr">
         <is>
           <t>【2025-12-03 ETF賣超 TOP 10】</t>
         </is>
       </c>
-      <c r="B176" s="16" t="n"/>
-      <c r="C176" s="16" t="n"/>
-      <c r="D176" s="16" t="n"/>
-      <c r="E176" s="16" t="n"/>
-      <c r="F176" s="16" t="n"/>
-      <c r="G176" s="16" t="n"/>
-      <c r="H176" s="16" t="n"/>
-      <c r="I176" s="16" t="n"/>
-      <c r="J176" s="17" t="n"/>
+      <c r="B176" s="17" t="n"/>
+      <c r="C176" s="17" t="n"/>
+      <c r="D176" s="17" t="n"/>
+      <c r="E176" s="17" t="n"/>
+      <c r="F176" s="17" t="n"/>
+      <c r="G176" s="17" t="n"/>
+      <c r="H176" s="17" t="n"/>
+      <c r="I176" s="17" t="n"/>
+      <c r="J176" s="18" t="n"/>
     </row>
     <row r="177">
       <c r="A177" s="4" t="n"/>
@@ -7048,32 +7051,32 @@
       <c r="J177" s="4" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" s="11" t="inlineStr">
+      <c r="A178" s="12" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B178" s="11" t="inlineStr">
+      <c r="B178" s="12" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C178" s="11" t="inlineStr">
+      <c r="C178" s="12" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="D178" s="11" t="inlineStr">
+      <c r="D178" s="12" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="E178" s="11" t="inlineStr">
+      <c r="E178" s="12" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="F178" s="11" t="inlineStr">
+      <c r="F178" s="12" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
